--- a/biology/Botanique/Styracaceae/Styracaceae.xlsx
+++ b/biology/Botanique/Styracaceae/Styracaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Styracaceae sont une famille de plantes à fleurs dicotylédones qui comprend environ 200 espèces réparties en 10 à 15 genres.
 Ce sont des arbres ou des arbustes à résine. L'aire de distribution comprend l'est de l'Asie, le bassin méditerranéen, l'Amérique, du sud-est des États-Unis au Mexique et aux zones tropicales d'Amérique du Sud.
@@ -513,11 +525,13 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Styrax  (grec στυραξ), ancien nom grec et latin de ces arbres et de leur résine balsamique[1].
-Le nom « styrax » sert aussi de façon abusive à désigner la résine du liquidambar. En effet dans l'antiquité, et notamment dans l'Histoire naturelle de Pline l'Ancien, le terme désignait aussi bien le Liquidambar orientalis (« Styrax de Chypre et de Cilicie ») que l'aliboufier (« Styrax de Syrie »)[2].
-Le nom serait dérivé de l'arabe اصّْطِرَكْ (aṣ-ṣṭirak)  [3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Styrax  (grec στυραξ), ancien nom grec et latin de ces arbres et de leur résine balsamique.
+Le nom « styrax » sert aussi de façon abusive à désigner la résine du liquidambar. En effet dans l'antiquité, et notamment dans l'Histoire naturelle de Pline l'Ancien, le terme désignait aussi bien le Liquidambar orientalis (« Styrax de Chypre et de Cilicie ») que l'aliboufier (« Styrax de Syrie »).
+Le nom serait dérivé de l'arabe اصّْطِرَكْ (aṣ-ṣṭirak)  .
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification phylogénétique APG (1998)[4], le genre Halesia ne faisait pas partie de cette famille mais de celle des Halesiaceae, mais en classification phylogénétique APG II (2003)[5] ce genre est réintroduit dans cette famille.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification phylogénétique APG (1998), le genre Halesia ne faisait pas partie de cette famille mais de celle des Halesiaceae, mais en classification phylogénétique APG II (2003) ce genre est réintroduit dans cette famille.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (30 juin 2010)[6] et DELTA Angio           (30 juin 2010)[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (30 juin 2010) et DELTA Angio           (30 juin 2010) :
 Alniphyllum
 Bruinsmia
 Halesia
@@ -591,7 +609,7 @@
 Rehderodendron
 Sinojackia
 Styrax
-Selon NCBI  (30 juin 2010)[8] :
+Selon NCBI  (30 juin 2010) :
 Alniphyllum
 Bruinsmia
 Changiostyrax
@@ -602,7 +620,7 @@
 Rehderodendron
 Sinojackia
 Styrax
-Selon ITIS      (30 juin 2010)[9] :
+Selon ITIS      (30 juin 2010) :
 Halesia Ellis ex L.
 Styrax L.
 Auxquels peuvent s'ajouter les synonymes potentiels:
@@ -637,9 +655,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (30 juin 2010)[8] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (30 juin 2010) :
 genre Alniphyllum
 Alniphyllum fortunei
 genre Bruinsmia
